--- a/package/LangMod/EN/SourceCard.xlsx
+++ b/package/LangMod/EN/SourceCard.xlsx
@@ -187,7 +187,7 @@
     <t xml:space="preserve">本</t>
   </si>
   <si>
-    <t xml:space="preserve">Dan Yao</t>
+    <t xml:space="preserve">Danyao</t>
   </si>
   <si>
     <t xml:space="preserve">DanYao</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">金丹 </t>
   </si>
   <si>
-    <t xml:space="preserve">Jin Dan</t>
+    <t xml:space="preserve">Jindan</t>
   </si>
   <si>
     <t xml:space="preserve">nerve/-20</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">仙丹 </t>
   </si>
   <si>
-    <t xml:space="preserve">Xian Dan</t>
+    <t xml:space="preserve">Xiandan</t>
   </si>
   <si>
     <t xml:space="preserve">nerve/-50</t>
@@ -954,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR13" activeCellId="0" sqref="AR13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.92578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2138,7 +2138,7 @@
   </sheetPr>
   <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/package/LangMod/EN/SourceCard.xlsx
+++ b/package/LangMod/EN/SourceCard.xlsx
@@ -178,7 +178,7 @@
     <t xml:space="preserve">dan_yao</t>
   </si>
   <si>
-    <t xml:space="preserve">herb </t>
+    <t xml:space="preserve">herb</t>
   </si>
   <si>
     <t xml:space="preserve">霊薬 </t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">nerve/-10</t>
   </si>
   <si>
-    <t xml:space="preserve">drug </t>
+    <t xml:space="preserve">drug</t>
   </si>
   <si>
     <t xml:space="preserve">生命のエッセンスを取り込み、それを精製する霊薬。 熟練度ポイントや基本属性を直接上昇させることができる。</t>
@@ -954,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR9" activeCellId="0" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.92578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1294,7 +1294,7 @@
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1333,35 +1333,35 @@
         <v>10</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="2"/>
@@ -1394,7 +1394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1433,35 +1433,35 @@
         <v>10</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="2"/>
@@ -1494,7 +1494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -1533,35 +1533,35 @@
         <v>10</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="1" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="2"/>
@@ -2002,7 +2002,7 @@
       <c r="AT3" s="8"/>
       <c r="AU3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>6516</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>160</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>182</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>185</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>188</v>
       </c>
